--- a/pred_ohlcv/54_21/2020-01-21 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 INS ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>75483.80489999999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>58533.62079999998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>45410.34939999998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>29818.34939999998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>34861.85149999998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5936.136099999983</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>14540.58109999998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>14533.58109999998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>14510.26249999998</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>13599.97919999998</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>13379.97919999998</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>11044.25449999998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>13094.07409999998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>15720.16869999998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>14669.94599999998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10460.23359999998</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3883.231686132483</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-11199.89871386752</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-12548.29691386752</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-10876.86561386752</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-13384.09541386752</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-105601.7068835076</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-137157.2194835076</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-138952.5408835076</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 INS ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>14751.85149999998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>13291.97919999998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>11044.25449999998</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>13094.07409999998</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>15720.16869999998</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>14669.94599999998</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10460.23359999998</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>9516.936986132483</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3883.231686132483</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3905.864286132483</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-962.550913867517</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5610.758713867517</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-10998.89871386752</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-11199.89871386752</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-16088.48291386752</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-12545.71021386752</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-12545.71021386752</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-12548.29691386752</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-16692.62871386752</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-16692.62871386752</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-16441.94581386752</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-15969.73571386752</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-14000.20751386752</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-14000.20751386752</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-10856.86561386752</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-10856.86561386752</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-10866.86561386752</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-10866.86561386752</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-10876.86561386752</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-10979.56241386752</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-13384.09541386752</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>36863.90458613248</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-135557.1895835076</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-136257.1895835076</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-137227.1295835076</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-137157.2194835076</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
